--- a/biology/Médecine/Zimmer_Biomet/Zimmer_Biomet.xlsx
+++ b/biology/Médecine/Zimmer_Biomet/Zimmer_Biomet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zimmer Holdings est une entreprise de matériel médical américaine.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est issue d'une scission de Bristol-Myers Squibb en 2001.
-En avril 2014, Zimmer acquiert Biomet, une entreprise américaine spécialisé dans le matériel orthopédique, pour 13,35 milliards de dollars[2].
-En juin 2016, Zimmer Biomet acquiert pour 1 milliard de dollars LDR Holding, une entreprise française spécialisée dans la chirurgie liée à la colonne vertébrale[3].
-En juillet 2016, Zimmer Biomet acquiert pour 164 millions d'euros la start-up Medtech, créée par Bertin Nahum, spécialisée dans les robots conçus pour le bloc-opératoire[4].
+En avril 2014, Zimmer acquiert Biomet, une entreprise américaine spécialisé dans le matériel orthopédique, pour 13,35 milliards de dollars.
+En juin 2016, Zimmer Biomet acquiert pour 1 milliard de dollars LDR Holding, une entreprise française spécialisée dans la chirurgie liée à la colonne vertébrale.
+En juillet 2016, Zimmer Biomet acquiert pour 164 millions d'euros la start-up Medtech, créée par Bertin Nahum, spécialisée dans les robots conçus pour le bloc-opératoire.
 </t>
         </is>
       </c>
